--- a/бизнес правила.xlsx
+++ b/бизнес правила.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
-    <sheet name="region_id_dict" sheetId="8" r:id="rId2"/>
-    <sheet name="region_id" sheetId="4" r:id="rId3"/>
-    <sheet name="drv_cnt" sheetId="7" r:id="rId4"/>
-    <sheet name="class_region" sheetId="2" r:id="rId5"/>
-    <sheet name="15" sheetId="3" r:id="rId6"/>
-    <sheet name="14" sheetId="5" r:id="rId7"/>
-    <sheet name="10_11" sheetId="6" r:id="rId8"/>
+    <sheet name="2021" sheetId="9" r:id="rId2"/>
+    <sheet name="region_id_dict" sheetId="8" r:id="rId3"/>
+    <sheet name="region_id" sheetId="4" r:id="rId4"/>
+    <sheet name="drv_cnt" sheetId="7" r:id="rId5"/>
+    <sheet name="class_region" sheetId="2" r:id="rId6"/>
+    <sheet name="15" sheetId="3" r:id="rId7"/>
+    <sheet name="14" sheetId="5" r:id="rId8"/>
+    <sheet name="10_11" sheetId="6" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>class_id</t>
   </si>
@@ -61,6 +62,15 @@
   </si>
   <si>
     <t>На отсечение</t>
+  </si>
+  <si>
+    <t>CLASS_ID</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>REGION_ID</t>
   </si>
 </sst>
 </file>
@@ -104,7 +114,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -148,6 +164,16 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -727,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,6 +2007,5534 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>38759</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>147792</v>
+      </c>
+      <c r="T2" s="1">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>83935</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>908</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/SUM(C2:C3)</f>
+        <v>2.2890563944840799E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>3.786172963055625E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1941</v>
+      </c>
+      <c r="P3" s="2">
+        <f>O3/SUM(O2:O3)</f>
+        <v>1.2963074272204524E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <f>O3/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>8.0935701776332247E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>15</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>727</v>
+      </c>
+      <c r="X3" s="2">
+        <f>W3/SUM(W2:W3)</f>
+        <v>8.5870874772625266E-3</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>W3/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>7.6173512154233028E-2</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>115</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>AE3/SUM(AE2:AE3)</f>
+        <v>1.7506469782310855E-2</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>AE3/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>8.7187263078089466E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>104640</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="R4" s="3"/>
+      <c r="T4" s="1">
+        <v>15</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>59375</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="AB4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>4649</v>
+      </c>
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5/SUM(C4:C5)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>4.1697940121757988E-4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1761</v>
+      </c>
+      <c r="P5" s="2">
+        <f>O5/SUM(O4:O5)</f>
+        <v>1.655059632898187E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <f>O5/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>7.3430072554415818E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>697</v>
+      </c>
+      <c r="X5" s="2">
+        <f>W5/SUM(W4:W5)</f>
+        <v>1.1602743374617126E-2</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>W5/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>7.3030176026823129E-2</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="2">
+        <f>AE5/SUM(AE4:AE5)</f>
+        <v>1.8577158539159807E-2</v>
+      </c>
+      <c r="AH5" s="3">
+        <f>AE5/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>6.6717210007581504E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>80298</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="1">
+        <v>15</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>47212</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="AB6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>3530</v>
+      </c>
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7/SUM(C6:C7)</f>
+        <v>9.2436974789915971E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>C7/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>4.5867734133933782E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1623</v>
+      </c>
+      <c r="P7" s="2">
+        <f>O7/SUM(O6:O7)</f>
+        <v>1.9811769875856009E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <f>O7/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>6.7675756817613217E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>15</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>689</v>
+      </c>
+      <c r="X7" s="2">
+        <f>W7/SUM(W6:W7)</f>
+        <v>1.4383833322895138E-2</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>W7/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>7.2191953059513828E-2</v>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>100</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>AE7/SUM(AE6:AE7)</f>
+        <v>2.7548209366391185E-2</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>AE7/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>7.5815011372251703E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1395</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>114915</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="1">
+        <v>15</v>
+      </c>
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>66343</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="AB8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>4796</v>
+      </c>
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9/SUM(C8:C9)</f>
+        <v>5.5517941773865945E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>C9/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>3.4192310899841547E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2166</v>
+      </c>
+      <c r="P9" s="2">
+        <f>O9/SUM(O8:O9)</f>
+        <v>1.8500012811643221E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <f>O9/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>9.0317738303727801E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>15</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>908</v>
+      </c>
+      <c r="X9" s="2">
+        <f>W9/SUM(W8:W9)</f>
+        <v>1.3501657967911258E-2</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>W9/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>9.5138306789606039E-2</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>109</v>
+      </c>
+      <c r="AF9" s="2">
+        <f>AE9/SUM(AE8:AE9)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>AE9/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>8.2638362395754353E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2527</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>16746</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="1">
+        <v>15</v>
+      </c>
+      <c r="U10" s="1">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>8655</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="AB10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>630</v>
+      </c>
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11/SUM(C10:C11)</f>
+        <v>4.641509433962264E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>C11/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.1288466349762325E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>183</v>
+      </c>
+      <c r="P11" s="2">
+        <f>O11/SUM(O10:O11)</f>
+        <v>1.0809852915116073E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <f>O11/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>7.630723042281711E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>15</v>
+      </c>
+      <c r="U11" s="1">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>55</v>
+      </c>
+      <c r="X11" s="2">
+        <f>W11/SUM(W10:W11)</f>
+        <v>6.3145809414466127E-3</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>W11/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>5.7627829002514673E-3</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="2">
+        <f>AE11/SUM(AE10:AE11)</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>AE11/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>7.5815011372251705E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>35641</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>58256</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="1">
+        <v>15</v>
+      </c>
+      <c r="U12" s="1">
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>33931</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="AB12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>2437</v>
+      </c>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1673</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13/SUM(C12:C13)</f>
+        <v>4.4835718497078847E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>C13/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>6.9760653823701113E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>893</v>
+      </c>
+      <c r="P13" s="2">
+        <f>O13/SUM(O12:O13)</f>
+        <v>1.5097465722159293E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <f>O13/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>3.723626052872988E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>15</v>
+      </c>
+      <c r="U13" s="1">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>368</v>
+      </c>
+      <c r="X13" s="2">
+        <f>W13/SUM(W12:W13)</f>
+        <v>1.0729175777719467E-2</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>W13/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>3.8558256496227995E-2</v>
+      </c>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>46</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>AE13/SUM(AE12:AE13)</f>
+        <v>1.8525976641159889E-2</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>AE13/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>3.4874905231235785E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>36286</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="M14" s="1">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>22857</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="1">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>13005</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="AB14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>935</v>
+      </c>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1231</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15/SUM(C14:C15)</f>
+        <v>3.2811791987632274E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f>C15/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.133016428988408E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>342</v>
+      </c>
+      <c r="P15" s="2">
+        <f>O15/SUM(O14:O15)</f>
+        <v>1.4742014742014743E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <f>O15/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>1.4260695521641231E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>15</v>
+      </c>
+      <c r="U15" s="1">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>161</v>
+      </c>
+      <c r="X15" s="2">
+        <f>W15/SUM(W14:W15)</f>
+        <v>1.2228467264165275E-2</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>W15/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>1.686923721709975E-2</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="2">
+        <f>AE15/SUM(AE14:AE15)</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>AE15/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>8.339651250947688E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>46206</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="M16" s="1">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>18748</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="1">
+        <v>15</v>
+      </c>
+      <c r="U16" s="1">
+        <v>9</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>8646</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="AB16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>898</v>
+      </c>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1387</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C17/SUM(C16:C17)</f>
+        <v>2.914294118883029E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.7835042948878326E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>300</v>
+      </c>
+      <c r="P17" s="2">
+        <f>O17/SUM(O16:O17)</f>
+        <v>1.5749685006299873E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>O17/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>1.2509382036527395E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <v>15</v>
+      </c>
+      <c r="U17" s="1">
+        <v>9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>82</v>
+      </c>
+      <c r="X17" s="2">
+        <f>W17/SUM(W16:W17)</f>
+        <v>9.3950504124656279E-3</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>W17/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>8.5917854149203682E-3</v>
+      </c>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="2">
+        <f>AE17/SUM(AE16:AE17)</f>
+        <v>1.4270032930845226E-2</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>AE17/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>9.8559514783927212E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>45303</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="M18" s="1">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34276</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="1">
+        <v>15</v>
+      </c>
+      <c r="U18" s="1">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>19663</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="AB18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1252</v>
+      </c>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1197</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19/SUM(C18:C19)</f>
+        <v>2.5741935483870968E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>C19/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>4.9912434325744305E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>333</v>
+      </c>
+      <c r="P19" s="2">
+        <f>O19/SUM(O18:O19)</f>
+        <v>9.621774682885954E-3</v>
+      </c>
+      <c r="R19" s="3">
+        <f>O19/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>1.3885414060545409E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>15</v>
+      </c>
+      <c r="U19" s="1">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>161</v>
+      </c>
+      <c r="X19" s="2">
+        <f>W19/SUM(W18:W19)</f>
+        <v>8.1214689265536721E-3</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>W19/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>1.686923721709975E-2</v>
+      </c>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>15</v>
+      </c>
+      <c r="AF19" s="2">
+        <f>AE19/SUM(AE18:AE19)</f>
+        <v>1.1838989739542225E-2</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>AE19/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>1.1372251705837756E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>61919</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="M20" s="1">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>27848</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="1">
+        <v>15</v>
+      </c>
+      <c r="U20" s="1">
+        <v>11</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>16187</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="AB20" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1087</v>
+      </c>
+      <c r="AF20" s="2"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1485</v>
+      </c>
+      <c r="D21" s="12">
+        <f>C21/SUM(C20:C21)</f>
+        <v>2.3421235253296323E-2</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14">
+        <f>C21/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>6.1921441080810609E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>292</v>
+      </c>
+      <c r="P21" s="2">
+        <f>O21/SUM(O20:O21)</f>
+        <v>1.0376687988628288E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <f>O21/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>1.2175798515553332E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>15</v>
+      </c>
+      <c r="U21" s="1">
+        <v>11</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>126</v>
+      </c>
+      <c r="X21" s="2">
+        <f>W21/SUM(W20:W21)</f>
+        <v>7.7239011831054987E-3</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>W21/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>1.3202011735121543E-2</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="2">
+        <f>AE21/SUM(AE20:AE21)</f>
+        <v>1.5398550724637682E-2</v>
+      </c>
+      <c r="AH21" s="3">
+        <f>AE21/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>1.2888551933282789E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>61004</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="M22" s="1">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>8360</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="1">
+        <v>15</v>
+      </c>
+      <c r="U22" s="1">
+        <v>12</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>3004</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="AB22" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>612</v>
+      </c>
+      <c r="AF22" s="2"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1319</v>
+      </c>
+      <c r="D23" s="7">
+        <f>C23/SUM(C22:C23)</f>
+        <v>2.1163936267509589E-2</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8">
+        <f>C23/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.4999583020598784E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>167</v>
+      </c>
+      <c r="P23" s="2">
+        <f>O23/SUM(O22:O23)</f>
+        <v>1.9584848129471092E-2</v>
+      </c>
+      <c r="R23" s="3">
+        <f>O23/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>6.9635560003335839E-3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>15</v>
+      </c>
+      <c r="U23" s="1">
+        <v>12</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>44</v>
+      </c>
+      <c r="X23" s="2">
+        <f>W23/SUM(W22:W23)</f>
+        <v>1.4435695538057743E-2</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>W23/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>4.6102263202011731E-3</v>
+      </c>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>11</v>
+      </c>
+      <c r="AF23" s="2">
+        <f>AE23/SUM(AE22:AE23)</f>
+        <v>1.7656500802568219E-2</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>AE23/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>8.339651250947688E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>66429</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="M24" s="1">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35087</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="1">
+        <v>15</v>
+      </c>
+      <c r="U24" s="1">
+        <v>13</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>14799</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="AB24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1994</v>
+      </c>
+      <c r="AF24" s="2"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1280</v>
+      </c>
+      <c r="D25" s="7">
+        <f>C25/SUM(C24:C25)</f>
+        <v>1.890442924869663E-2</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8">
+        <f>C25/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.3373363355850224E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>409</v>
+      </c>
+      <c r="P25" s="2">
+        <f>O25/SUM(O24:O25)</f>
+        <v>1.1522425061978814E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <f>O25/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>1.7054457509799018E-2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>15</v>
+      </c>
+      <c r="U25" s="1">
+        <v>13</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>129</v>
+      </c>
+      <c r="X25" s="2">
+        <f>W25/SUM(W24:W25)</f>
+        <v>8.641479099678457E-3</v>
+      </c>
+      <c r="Z25" s="3">
+        <f>W25/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>1.3516345347862531E-2</v>
+      </c>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>24</v>
+      </c>
+      <c r="AF25" s="2">
+        <f>AE25/SUM(AE24:AE25)</f>
+        <v>1.1892963330029732E-2</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>AE25/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>1.8195602729340409E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>67697</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="M26" s="1">
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>28348</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="1">
+        <v>15</v>
+      </c>
+      <c r="U26" s="1">
+        <v>14</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>13352</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="AB26" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1438</v>
+      </c>
+      <c r="AF26" s="2"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1217</v>
+      </c>
+      <c r="D27" s="7">
+        <f>C27/SUM(C26:C27)</f>
+        <v>1.7659691789766955E-2</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8">
+        <f>C27/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.0746393128179468E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>311</v>
+      </c>
+      <c r="P27" s="2">
+        <f>O27/SUM(O26:O27)</f>
+        <v>1.0851739418681741E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f>O27/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>1.2968059377866733E-2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>15</v>
+      </c>
+      <c r="U27" s="1">
+        <v>14</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>117</v>
+      </c>
+      <c r="X27" s="2">
+        <f>W27/SUM(W26:W27)</f>
+        <v>8.6866137055460688E-3</v>
+      </c>
+      <c r="Z27" s="3">
+        <f>W27/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>1.2259010896898575E-2</v>
+      </c>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>24</v>
+      </c>
+      <c r="AF27" s="2">
+        <f>AE27/SUM(AE26:AE27)</f>
+        <v>1.6415868673050615E-2</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>AE27/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>1.8195602729340409E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>79541</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="M28" s="1">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>288186</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="1">
+        <v>15</v>
+      </c>
+      <c r="U28" s="1">
+        <v>15</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>175783</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="AB28" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>10798</v>
+      </c>
+      <c r="AF28" s="2"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1325</v>
+      </c>
+      <c r="D29" s="7">
+        <f>C29/SUM(C28:C29)</f>
+        <v>1.6385130957386293E-2</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8">
+        <f>C29/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>5.5249770661329328E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>4977</v>
+      </c>
+      <c r="P29" s="2">
+        <f>O29/SUM(O28:O29)</f>
+        <v>1.6976903633814634E-2</v>
+      </c>
+      <c r="R29" s="3">
+        <f>O29/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>0.2075306479859895</v>
+      </c>
+      <c r="T29" s="1">
+        <v>15</v>
+      </c>
+      <c r="U29" s="1">
+        <v>15</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>2209</v>
+      </c>
+      <c r="X29" s="2">
+        <f>W29/SUM(W28:W29)</f>
+        <v>1.2410670142478314E-2</v>
+      </c>
+      <c r="Z29" s="3">
+        <f>W29/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>0.23145431684828163</v>
+      </c>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>260</v>
+      </c>
+      <c r="AF29" s="2">
+        <f>AE29/SUM(AE28:AE29)</f>
+        <v>2.3512389220473866E-2</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>AE29/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>0.19711902956785443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>78818</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="M30" s="1">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>189216</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="T30" s="1">
+        <v>15</v>
+      </c>
+      <c r="U30" s="1">
+        <v>16</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>98900</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1190</v>
+      </c>
+      <c r="D31" s="7">
+        <f>C31/SUM(C30:C31)</f>
+        <v>1.4873512648735127E-2</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8">
+        <f>C31/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>4.9620548744892003E-2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>6109</v>
+      </c>
+      <c r="P31" s="2">
+        <f>O31/SUM(O30:O31)</f>
+        <v>3.127607833098682E-2</v>
+      </c>
+      <c r="R31" s="3">
+        <f>O31/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>0.25473271620381954</v>
+      </c>
+      <c r="T31" s="1">
+        <v>15</v>
+      </c>
+      <c r="U31" s="1">
+        <v>16</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>2253</v>
+      </c>
+      <c r="X31" s="2">
+        <f>W31/SUM(W30:W31)</f>
+        <v>2.2273190117940149E-2</v>
+      </c>
+      <c r="Z31" s="3">
+        <f>W31/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>0.23606454316848283</v>
+      </c>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>347</v>
+      </c>
+      <c r="AF31" s="2">
+        <f>AE31/SUM(AE30:AE31)</f>
+        <v>3.7655995659251221E-2</v>
+      </c>
+      <c r="AH31" s="3">
+        <f>AE31/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>0.2630780894617134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>794984</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="M32" s="1">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>103992</v>
+      </c>
+      <c r="T32" s="1">
+        <v>15</v>
+      </c>
+      <c r="U32" s="1">
+        <v>19</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>58734</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9544</v>
+      </c>
+      <c r="D33" s="7">
+        <f>C33/SUM(C32:C33)</f>
+        <v>1.1862856233717162E-2</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8">
+        <f>C33/SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13,$C$15,$C$17,$C$19,$C$21,$C$23,$C$25,$C$27,$C$29,$C$31,$C$33)</f>
+        <v>0.39796514052205822</v>
+      </c>
+      <c r="M33" s="1">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1027</v>
+      </c>
+      <c r="P33" s="2">
+        <f>O33/SUM(O32:O33)</f>
+        <v>9.7791828145383213E-3</v>
+      </c>
+      <c r="R33" s="3">
+        <f>O33/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>4.2823784505045454E-2</v>
+      </c>
+      <c r="T33" s="1">
+        <v>15</v>
+      </c>
+      <c r="U33" s="1">
+        <v>19</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>432</v>
+      </c>
+      <c r="X33" s="2">
+        <f>W33/SUM(W32:W33)</f>
+        <v>7.3014907210222088E-3</v>
+      </c>
+      <c r="Z33" s="3">
+        <f>W33/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>4.526404023470243E-2</v>
+      </c>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>52</v>
+      </c>
+      <c r="AF33" s="2">
+        <f>AE33/SUM(AE32:AE33)</f>
+        <v>1.1672278338945005E-2</v>
+      </c>
+      <c r="AH33" s="3">
+        <f>AE33/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>3.9423805913570885E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>SUM(C2:C33)</f>
+        <v>1440729</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C3)</f>
+        <v>23982</v>
+      </c>
+      <c r="M34" s="1">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>137182</v>
+      </c>
+      <c r="T34" s="1">
+        <v>15</v>
+      </c>
+      <c r="U34" s="1">
+        <v>20</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>73460</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C22:C33)</f>
+        <v>1164348</v>
+      </c>
+      <c r="D35" s="3">
+        <f>SUM(C22:C33)/C34</f>
+        <v>0.80816586603032214</v>
+      </c>
+      <c r="F35">
+        <f>SUM(C23,C25,C27,C29,C31,C33)</f>
+        <v>15875</v>
+      </c>
+      <c r="G35" s="3">
+        <f>F35/F34</f>
+        <v>0.66195479943290803</v>
+      </c>
+      <c r="M35" s="1">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1148</v>
+      </c>
+      <c r="P35" s="2">
+        <f>O35/SUM(O34:O35)</f>
+        <v>8.2989951565097947E-3</v>
+      </c>
+      <c r="R35" s="3">
+        <f>O35/SUM($O$3,$O$5,$O$7,$O$9,$O$11,$O$13,$O$15,$O$17,$O$19,$O$21,$O$23,$O$25,$O$27,$O$29,$O$31,$O$33,$O$35)</f>
+        <v>4.7869235259778167E-2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>15</v>
+      </c>
+      <c r="U35" s="1">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>386</v>
+      </c>
+      <c r="X35" s="2">
+        <f>W35/SUM(W34:W35)</f>
+        <v>5.2270942231129646E-3</v>
+      </c>
+      <c r="Z35" s="3">
+        <f>W35/SUM($W$3,$W$5,$W$7,$W$9,$W$11,$W$13,$W$15,$W$17,$W$19,$W$21,$W$23,$W$25,$W$27,$W$29,$W$31,$W$33,$W$35)</f>
+        <v>4.0444258172673934E-2</v>
+      </c>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>77</v>
+      </c>
+      <c r="AF35" s="2">
+        <f>AE35/SUM(AE34:AE35)</f>
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="AH35" s="3">
+        <f>AE35/SUM($AE$3,$AE$5,$AE$7,$AE$9,$AE$11,$AE$13,$AE$15,$AE$17,$AE$19,$AE$21,$AE$23,$AE$25,$AE$27,$AE$29,$AE$31,$AE$33,$AE$35)</f>
+        <v>5.8377558756633814E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4">
+        <f>1-D35</f>
+        <v>0.19183413396967786</v>
+      </c>
+      <c r="G36" s="10">
+        <f>1-G35</f>
+        <v>0.33804520056709197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="M39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>66343</v>
+      </c>
+      <c r="F40">
+        <f>C35-SUM(D40:D41)</f>
+        <v>1097097</v>
+      </c>
+      <c r="G40" s="3">
+        <f>F40/C34</f>
+        <v>0.76148741366349948</v>
+      </c>
+      <c r="I40">
+        <f>F35-D41</f>
+        <v>14967</v>
+      </c>
+      <c r="J40" s="3">
+        <f>I40/F34</f>
+        <v>0.6240930698023518</v>
+      </c>
+      <c r="M40" s="1">
+        <v>11</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>908</v>
+      </c>
+      <c r="G41" s="11">
+        <f>1-G40</f>
+        <v>0.23851258633650052</v>
+      </c>
+      <c r="J41" s="11">
+        <f>1-J40</f>
+        <v>0.3759069301976482</v>
+      </c>
+      <c r="M41" s="1">
+        <v>11</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>110</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>P41/SUM(P40:P41)</f>
+        <v>1.5056118258965233E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f>P41/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>8.59375E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>98900</v>
+      </c>
+      <c r="F42">
+        <f>F40-SUM(D42:D43)</f>
+        <v>995944</v>
+      </c>
+      <c r="G42" s="3">
+        <f>F42/C34</f>
+        <v>0.6912778183822218</v>
+      </c>
+      <c r="I42">
+        <f>I40-D43</f>
+        <v>12714</v>
+      </c>
+      <c r="J42" s="3">
+        <f>I42/F34</f>
+        <v>0.53014761070803107</v>
+      </c>
+      <c r="M42" s="1">
+        <v>11</v>
+      </c>
+      <c r="N42" s="1">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>4994</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2253</v>
+      </c>
+      <c r="G43" s="11">
+        <f>1-G42</f>
+        <v>0.3087221816177782</v>
+      </c>
+      <c r="J43" s="11">
+        <f>1-J42</f>
+        <v>0.46985238929196893</v>
+      </c>
+      <c r="M43" s="1">
+        <v>11</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>P43/SUM(P42:P43)</f>
+        <v>1.8667714678718805E-2</v>
+      </c>
+      <c r="S43" s="3">
+        <f>P43/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>7.421875E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>15</v>
+      </c>
+      <c r="B44" s="17">
+        <v>4</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0</v>
+      </c>
+      <c r="D44" s="17">
+        <v>47212</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
+        <f>F42-SUM(D44:D45)</f>
+        <v>948043</v>
+      </c>
+      <c r="G44" s="18">
+        <f>F44/C34</f>
+        <v>0.65803006672316589</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17">
+        <f>I42-D45</f>
+        <v>12025</v>
+      </c>
+      <c r="J44" s="18">
+        <f>I44/F34</f>
+        <v>0.5014177299641398</v>
+      </c>
+      <c r="M44" s="1">
+        <v>11</v>
+      </c>
+      <c r="N44" s="1">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>3710</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>15</v>
+      </c>
+      <c r="B45" s="17">
+        <v>4</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17">
+        <v>689</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19">
+        <f>1-G44</f>
+        <v>0.34196993327683411</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="19">
+        <f>1-J44</f>
+        <v>0.4985822700358602</v>
+      </c>
+      <c r="M45" s="1">
+        <v>11</v>
+      </c>
+      <c r="N45" s="1">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>93</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>P45/SUM(P44:P45)</f>
+        <v>2.4454378122534842E-2</v>
+      </c>
+      <c r="S45" s="3">
+        <f>P45/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>7.2656250000000006E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>15</v>
+      </c>
+      <c r="B46" s="17">
+        <v>3</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0</v>
+      </c>
+      <c r="D46" s="17">
+        <v>59375</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
+        <f>F44-SUM(D46:D47)</f>
+        <v>887971</v>
+      </c>
+      <c r="G46" s="18">
+        <f>F46/C34</f>
+        <v>0.61633450843288362</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17">
+        <f>I44-D47</f>
+        <v>11328</v>
+      </c>
+      <c r="J46" s="18">
+        <f>I46/F34</f>
+        <v>0.47235426569927447</v>
+      </c>
+      <c r="M46" s="1">
+        <v>11</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>5109</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>15</v>
+      </c>
+      <c r="B47" s="17">
+        <v>3</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="17">
+        <v>697</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="19">
+        <f>1-G46</f>
+        <v>0.38366549156711638</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="19">
+        <f>1-J46</f>
+        <v>0.52764573430072548</v>
+      </c>
+      <c r="M47" s="1">
+        <v>11</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>108</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>P47/SUM(P46:P47)</f>
+        <v>2.0701552616446232E-2</v>
+      </c>
+      <c r="S47" s="3">
+        <f>P47/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>8.4375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="M48" s="1">
+        <v>11</v>
+      </c>
+      <c r="N48" s="1">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>614</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="M49" s="1">
+        <v>11</v>
+      </c>
+      <c r="N49" s="1">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>P49/SUM(P48:P49)</f>
+        <v>8.0775444264943458E-3</v>
+      </c>
+      <c r="S49" s="3">
+        <f>P49/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <v>11</v>
+      </c>
+      <c r="N50" s="1">
+        <v>7</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>2627</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>10798</v>
+      </c>
+      <c r="F51">
+        <f>F46-SUM(D51:D60)</f>
+        <v>859163</v>
+      </c>
+      <c r="G51" s="3">
+        <f>F51/C34</f>
+        <v>0.59633907556521737</v>
+      </c>
+      <c r="I51">
+        <f>I46-D52-D54-D56-D58</f>
+        <v>10512</v>
+      </c>
+      <c r="J51" s="3">
+        <f>I51/F34</f>
+        <v>0.43832874655991994</v>
+      </c>
+      <c r="M51" s="1">
+        <v>11</v>
+      </c>
+      <c r="N51" s="1">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>38</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>P51/SUM(P50:P51)</f>
+        <v>1.425891181988743E-2</v>
+      </c>
+      <c r="S51" s="3">
+        <f>P51/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>2.9687499999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>260</v>
+      </c>
+      <c r="G52" s="11">
+        <f>1-G51</f>
+        <v>0.40366092443478263</v>
+      </c>
+      <c r="J52" s="11">
+        <f>1-J51</f>
+        <v>0.56167125344008006</v>
+      </c>
+      <c r="M52" s="1">
+        <v>11</v>
+      </c>
+      <c r="N52" s="1">
+        <v>8</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1056</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>8868</v>
+      </c>
+      <c r="M53" s="1">
+        <v>11</v>
+      </c>
+      <c r="N53" s="1">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>P53/SUM(P52:P53)</f>
+        <v>1.858736059479554E-2</v>
+      </c>
+      <c r="S53" s="3">
+        <f>P53/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>347</v>
+      </c>
+      <c r="M54" s="1">
+        <v>11</v>
+      </c>
+      <c r="N54" s="1">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>977</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>4796</v>
+      </c>
+      <c r="M55" s="1">
+        <v>11</v>
+      </c>
+      <c r="N55" s="1">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>P55/SUM(P54:P55)</f>
+        <v>1.2133468149646108E-2</v>
+      </c>
+      <c r="S55" s="3">
+        <f>P55/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>9.3749999999999997E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>109</v>
+      </c>
+      <c r="M56" s="1">
+        <v>11</v>
+      </c>
+      <c r="N56" s="1">
+        <v>10</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1377</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>10</v>
+      </c>
+      <c r="B57" s="17">
+        <v>4</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>3530</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="M57" s="1">
+        <v>11</v>
+      </c>
+      <c r="N57" s="1">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>P57/SUM(P56:P57)</f>
+        <v>1.0064701653486701E-2</v>
+      </c>
+      <c r="S57" s="3">
+        <f>P57/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>1.0937499999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>10</v>
+      </c>
+      <c r="B58" s="17">
+        <v>4</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
+        <v>100</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="M58" s="1">
+        <v>11</v>
+      </c>
+      <c r="N58" s="1">
+        <v>11</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1177</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M59" s="1">
+        <v>11</v>
+      </c>
+      <c r="N59" s="1">
+        <v>11</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="2">
+        <f>P59/SUM(P58:P59)</f>
+        <v>1.3411567476948869E-2</v>
+      </c>
+      <c r="S59" s="3">
+        <f>P59/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M60" s="1">
+        <v>11</v>
+      </c>
+      <c r="N60" s="1">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>620</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <v>11</v>
+      </c>
+      <c r="N61" s="1">
+        <v>12</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="2">
+        <f>P61/SUM(P60:P61)</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="S61" s="3">
+        <f>P61/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <v>11</v>
+      </c>
+      <c r="N62" s="1">
+        <v>13</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>2114</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>11</v>
+      </c>
+      <c r="N63" s="1">
+        <v>13</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>28</v>
+      </c>
+      <c r="Q63" s="2">
+        <f>P63/SUM(P62:P63)</f>
+        <v>1.3071895424836602E-2</v>
+      </c>
+      <c r="S63" s="3">
+        <f>P63/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>9427</v>
+      </c>
+      <c r="F64">
+        <f>F51-SUM(D64:D74)</f>
+        <v>828041</v>
+      </c>
+      <c r="G64" s="3">
+        <f>F64/C34</f>
+        <v>0.57473751135709772</v>
+      </c>
+      <c r="I64">
+        <f>I51-D65-D67-D69-D71-D73</f>
+        <v>9709</v>
+      </c>
+      <c r="J64" s="3">
+        <f>I64/F34</f>
+        <v>0.4048453006421483</v>
+      </c>
+      <c r="M64" s="1">
+        <v>11</v>
+      </c>
+      <c r="N64" s="1">
+        <v>14</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1456</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>353</v>
+      </c>
+      <c r="G65" s="11">
+        <f>1-G64</f>
+        <v>0.42526248864290228</v>
+      </c>
+      <c r="J65" s="11">
+        <f>1-J64</f>
+        <v>0.5951546993578517</v>
+      </c>
+      <c r="M65" s="1">
+        <v>11</v>
+      </c>
+      <c r="N65" s="1">
+        <v>14</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="2">
+        <f>P65/SUM(P64:P65)</f>
+        <v>1.4218009478672985E-2</v>
+      </c>
+      <c r="S65" s="3">
+        <f>P65/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>1.6406250000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>12073</v>
+      </c>
+      <c r="M66" s="1">
+        <v>11</v>
+      </c>
+      <c r="N66" s="1">
+        <v>15</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>12073</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>249</v>
+      </c>
+      <c r="G67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" s="1">
+        <v>11</v>
+      </c>
+      <c r="N67" s="1">
+        <v>15</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>249</v>
+      </c>
+      <c r="Q67" s="2">
+        <f>P67/SUM(P66:P67)</f>
+        <v>2.020775848076611E-2</v>
+      </c>
+      <c r="S67" s="3">
+        <f>P67/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>0.19453124999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>11</v>
+      </c>
+      <c r="B68" s="17">
+        <v>4</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0</v>
+      </c>
+      <c r="D68" s="17">
+        <v>3710</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="M68" s="1">
+        <v>11</v>
+      </c>
+      <c r="N68" s="1">
+        <v>16</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>9427</v>
+      </c>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>11</v>
+      </c>
+      <c r="B69" s="17">
+        <v>4</v>
+      </c>
+      <c r="C69" s="17">
+        <v>1</v>
+      </c>
+      <c r="D69" s="17">
+        <v>93</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="M69" s="1">
+        <v>11</v>
+      </c>
+      <c r="N69" s="1">
+        <v>16</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>353</v>
+      </c>
+      <c r="Q69" s="2">
+        <f>P69/SUM(P68:P69)</f>
+        <v>3.6094069529652349E-2</v>
+      </c>
+      <c r="S69" s="3">
+        <f>P69/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>0.27578124999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>11</v>
+      </c>
+      <c r="B70" s="17">
+        <v>5</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0</v>
+      </c>
+      <c r="D70" s="17">
+        <v>5109</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="M70" s="1">
+        <v>11</v>
+      </c>
+      <c r="N70" s="1">
+        <v>19</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>11</v>
+      </c>
+      <c r="B71" s="17">
+        <v>5</v>
+      </c>
+      <c r="C71" s="17">
+        <v>1</v>
+      </c>
+      <c r="D71" s="17">
+        <v>108</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="M71" s="1">
+        <v>11</v>
+      </c>
+      <c r="N71" s="1">
+        <v>19</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>60</v>
+      </c>
+      <c r="Q71" s="2">
+        <f>P71/SUM(P70:P71)</f>
+        <v>1.2297601967616315E-2</v>
+      </c>
+      <c r="S71" s="3">
+        <f>P71/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="M72" s="1">
+        <v>11</v>
+      </c>
+      <c r="N72" s="1">
+        <v>20</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="M73" s="1">
+        <v>11</v>
+      </c>
+      <c r="N73" s="1">
+        <v>20</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>48</v>
+      </c>
+      <c r="Q73" s="2">
+        <f>P73/SUM(P72:P73)</f>
+        <v>6.7311737484223814E-3</v>
+      </c>
+      <c r="S73" s="3">
+        <f>P73/SUM($P$41,$P$43,$P$45,$P$47,$P$49,$P$51,$P$53,$P$55,$P$57,$P$59,$P$61,$P$63,$P$65,$P$67,$P$69,$P$71,$P$73)</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="M40:P73">
+    <sortCondition ref="N39"/>
+  </sortState>
+  <conditionalFormatting sqref="D3:D29">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D29">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D31">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F31">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D33">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P29">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P29">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P31">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R31">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P33">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P35">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R35">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X29">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X29">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X31">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X33">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X35">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AA3">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AA3">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:AA5">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:AA5">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7:AA7">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7:AA7">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:AA9">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:AA9">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:AA11">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:AA11">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13:AA13">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13:AA13">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:AA15">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:AA15">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AA17">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AA17">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:AA19">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:AA19">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:AA21">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:AA21">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:AA23">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:AA23">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:AA25">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:AA25">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27:AA27">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27:AA27">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29:AA29">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29:AA29">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z31:AA31">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z31:AA31">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z33:AA33">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z33:AA33">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35:AA35">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35:AA35">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AA35">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41:Q67">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41:Q67">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q69">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q69">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41:Q69">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q71">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q71">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q71">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41:Q71">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41:Q73">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41:S69">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S71">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41:S73">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S71">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF29">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF29">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF31">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF33">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF35">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
@@ -2672,12 +8226,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D6" sqref="D6:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3514,7 +9068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -4126,7 +9680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D468"/>
   <sheetViews>
@@ -10699,7 +16253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X61"/>
   <sheetViews>
@@ -12451,7 +18005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -13458,7 +19012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
